--- a/Model Summary/NMR_parameters.xlsx
+++ b/Model Summary/NMR_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,16 +466,6 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>firing_degree_min</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>firing_degree_max</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>firing_degree</t>
         </is>
       </c>
@@ -486,38 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.06827825]
- [0.13678454]
- [0.65740946]]</t>
+          <t>[[0.05311143]
+ [0.1302186 ]
+ [0.69773081]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[0.05131861]
- [0.07513073]
- [0.10250129]]</t>
+          <t>[[0.0849606 ]
+ [0.09574303]
+ [0.09749091]]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-16.27007830515526</v>
+        <v>-16.4835215262267</v>
       </c>
       <c r="E2" t="n">
-        <v>1.811054710923791</v>
+        <v>3.252131102432681</v>
       </c>
       <c r="F2" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>1e-10</v>
+        <v>0.02652446370516254</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>8.536834120408583e-05</v>
       </c>
     </row>
     <row r="3">
@@ -526,38 +510,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.11459893]
- [0.18749641]
- [0.60507026]]</t>
+          <t>[[0.08228968]
+ [0.15556817]
+ [0.65097258]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[0.03811074]
- [0.08943574]
- [0.12098453]]</t>
+          <t>[[0.01763293]
+ [0.07905498]
+ [0.10124847]]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-13.98218570744763</v>
+        <v>-15.26825983559251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8196792068015659</v>
+        <v>0.5728157217851149</v>
       </c>
       <c r="F3" t="n">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="G3" t="n">
         <v>1e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
     <row r="4">
@@ -566,38 +544,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.18973788]
- [0.24761578]
- [0.53324782]]</t>
+          <t>[[0.13467593]
+ [0.19719347]
+ [0.58437102]]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[[0.04057957]
- [0.09098776]
- [0.12564369]]</t>
+          <t>[[0.01996375]
+ [0.09478911]
+ [0.12741536]]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-11.04336179516487</v>
+        <v>-13.17499095679213</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8110682376809258</v>
+        <v>0.5934112218553106</v>
       </c>
       <c r="F4" t="n">
-        <v>439</v>
+        <v>202</v>
       </c>
       <c r="G4" t="n">
         <v>1e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
     <row r="5">
@@ -606,38 +578,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[0.25103288]
- [0.29351558]
- [0.48221689]]</t>
+          <t>[[0.18632657]
+ [0.24335731]
+ [0.53381282]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[0.03287276]
- [0.06452661]
- [0.10055488]]</t>
+          <t>[[0.02015919]
+ [0.09195827]
+ [0.13078975]]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-8.443677692429373</v>
+        <v>-11.07896038543913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7669140381041231</v>
+        <v>0.6101912906905872</v>
       </c>
       <c r="F5" t="n">
-        <v>982</v>
+        <v>314</v>
       </c>
       <c r="G5" t="n">
         <v>1e-10</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
     <row r="6">
@@ -646,38 +612,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[0.31527305]
- [0.34324239]
- [0.42798856]]</t>
+          <t>[[0.24124181]
+ [0.28499409]
+ [0.49266145]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[[0.03920357]
- [0.07462194]
- [0.12432021]]</t>
+          <t>[[0.01698617]
+ [0.06268645]
+ [0.09754442]]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-5.717581022860033</v>
+        <v>-8.891469242795642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8058955498507241</v>
+        <v>0.5796707419312355</v>
       </c>
       <c r="F6" t="n">
-        <v>633</v>
+        <v>767</v>
       </c>
       <c r="G6" t="n">
-        <v>1e-10</v>
+        <v>1.680996214380733e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>5.410245424268479e-13</v>
       </c>
     </row>
     <row r="7">
@@ -686,38 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[0.39241675]
- [0.39870485]
- [0.38393817]]</t>
+          <t>[[0.28659431]
+ [0.32016954]
+ [0.44933402]]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[0.03648579]
- [0.06730294]
- [0.11690316]]</t>
+          <t>[[0.01852733]
+ [0.06793296]
+ [0.11408658]]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-2.781296215016833</v>
+        <v>-7.081710794256293</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7912460997333243</v>
+        <v>0.6193674930279515</v>
       </c>
       <c r="F7" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G7" t="n">
-        <v>1e-10</v>
+        <v>0.01849718669632464</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>5.953274542173603e-05</v>
       </c>
     </row>
     <row r="8">
@@ -726,38 +680,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[0.46443801]
- [0.44782427]
- [0.37956005]]</t>
+          <t>[[0.34163201]
+ [0.36370714]
+ [0.39907627]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[0.03768025]
- [0.06416715]
- [0.12102064]]</t>
+          <t>[[0.01898801]
+ [0.07252254]
+ [0.131232  ]]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.02090406761986786</v>
+        <v>-4.881486813462899</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8128806164645744</v>
+        <v>0.609263568790357</v>
       </c>
       <c r="F8" t="n">
-        <v>532</v>
+        <v>419</v>
       </c>
       <c r="G8" t="n">
-        <v>1e-10</v>
+        <v>127.3535635408566</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>0.4098843462684612</v>
       </c>
     </row>
     <row r="9">
@@ -766,38 +714,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[0.53488881]
- [0.49942426]
- [0.38059899]]</t>
+          <t>[[0.39534978]
+ [0.4024417 ]
+ [0.37139531]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[0.03655476]
- [0.06539987]
- [0.12743859]]</t>
+          <t>[[0.01805944]
+ [0.06282955]
+ [0.11758018]]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.822634130172304</v>
+        <v>-2.755037955733696</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8075124551944046</v>
+        <v>0.6192359051777768</v>
       </c>
       <c r="F9" t="n">
-        <v>644</v>
+        <v>457</v>
       </c>
       <c r="G9" t="n">
-        <v>1.070812313781174e-07</v>
+        <v>183.2689926224758</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.796112739063459e-07</v>
+        <v>0.5898467945755107</v>
       </c>
     </row>
     <row r="10">
@@ -806,38 +748,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[0.60763386]
- [0.54908677]
- [0.41428162]]</t>
+          <t>[[0.44815451]
+ [0.44038909]
+ [0.38752547]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[0.03857603]
- [0.08030767]
- [0.13498391]]</t>
+          <t>[[0.01800461]
+ [0.06362721]
+ [0.11032915]]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.708263571644367</v>
+        <v>-0.6676644234046379</v>
       </c>
       <c r="E10" t="n">
-        <v>0.800505385131133</v>
+        <v>0.6181938485618268</v>
       </c>
       <c r="F10" t="n">
-        <v>574</v>
+        <v>380</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005153703241436799</v>
+        <v>0.03851452567089093</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.008644495329541865</v>
+        <v>0.0001239580639719476</v>
       </c>
     </row>
     <row r="11">
@@ -846,38 +782,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[0.6763219 ]
- [0.60481292]
- [0.46935139]]</t>
+          <t>[[0.50108669]
+ [0.47953589]
+ [0.35885921]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[[0.03636066]
- [0.08494218]
- [0.13124855]]</t>
+          <t>[[0.01742155]
+ [0.06115823]
+ [0.14086997]]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.521208959485053</v>
+        <v>1.432822925176326</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8176487037987229</v>
+        <v>0.6034796269726226</v>
       </c>
       <c r="F11" t="n">
-        <v>545</v>
+        <v>420</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2843960464746812</v>
+        <v>3.192516157620531e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4770279118370734</v>
+        <v>1.027503559252967e-12</v>
       </c>
     </row>
     <row r="12">
@@ -886,38 +816,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[0.74569639]
- [0.6537725 ]
- [0.53709635]]</t>
+          <t>[[0.5509719 ]
+ [0.51549336]
+ [0.37728197]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[0.03772112]
- [0.09774685]
- [0.13517767]]</t>
+          <t>[[0.01756002]
+ [0.06402713]
+ [0.12576646]]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.26096265708077</v>
+        <v>3.410448595297656</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7909131739236633</v>
+        <v>0.5928423466914202</v>
       </c>
       <c r="F12" t="n">
-        <v>399</v>
+        <v>483</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3011415988486217</v>
+        <v>1e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5051158405566111</v>
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
     <row r="13">
@@ -926,38 +850,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[0.81103945]
- [0.70783717]
- [0.60195502]]</t>
+          <t>[[0.6044436 ]
+ [0.55615225]
+ [0.40228797]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[0.03682436]
- [0.09442107]
- [0.12862784]]</t>
+          <t>[[0.01883843]
+ [0.0781522 ]
+ [0.13776764]]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.94647776621918</v>
+        <v>5.537533146667895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8121910497031767</v>
+        <v>0.5940084649370668</v>
       </c>
       <c r="F13" t="n">
-        <v>247</v>
+        <v>403</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00547284496775604</v>
+        <v>1e-10</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.009179803443607717</v>
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
     <row r="14">
@@ -966,38 +884,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[0.86761742]
- [0.76614317]
- [0.65338452]]</t>
+          <t>[[0.65830094]
+ [0.59596906]
+ [0.44953202]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[0.03912586]
- [0.09754198]
- [0.12084326]]</t>
+          <t>[[0.01951538]
+ [0.0855098 ]
+ [0.13773286]]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16.60045680610182</v>
+        <v>7.676381887746297</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8403239170218366</v>
+        <v>0.5954232679831231</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="G14" t="n">
-        <v>1.893947766819788e-05</v>
+        <v>1e-10</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.176788002272613e-05</v>
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
     <row r="15">
@@ -1006,38 +918,202 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[0.95430972]
- [0.8109363 ]
- [0.76649912]]</t>
+          <t>[[0.70769694]
+ [0.63583678]
+ [0.49413294]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[0.0302885 ]
- [0.1316347 ]
- [0.13345004]]</t>
+          <t>[[0.02064962]
+ [0.09232268]
+ [0.1389581 ]]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19.76682523706076</v>
+        <v>9.657462472382125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9577798153904443</v>
+        <v>0.609040853874799</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="G15" t="n">
         <v>1e-10</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.677336649894469e-10</v>
+        <v>3.218475674117789e-13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[[0.76175856]
+ [0.68229385]
+ [0.54738195]]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[[0.02044505]
+ [0.0946705 ]
+ [0.13336779]]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.83951558400279</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6073942367341977</v>
+      </c>
+      <c r="F16" t="n">
+        <v>292</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.218475674117789e-13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[[0.81319885]
+ [0.72189815]
+ [0.60899249]]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[[0.019916  ]
+ [0.09153467]
+ [0.12134061]]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13.88997841744493</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6130269432859651</v>
+      </c>
+      <c r="F17" t="n">
+        <v>201</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.218475674117789e-13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[[0.86076786]
+ [0.76188949]
+ [0.65986421]]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[[0.02046493]
+ [0.1051492 ]
+ [0.13397504]]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>15.82239359589182</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5717476200783435</v>
+      </c>
+      <c r="F18" t="n">
+        <v>76</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.218475674117789e-13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[[0.91426752]
+ [0.81395877]
+ [0.71922727]]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[[0.02075632]
+ [0.10772341]
+ [0.13492465]]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18.00502137574836</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5757820999538996</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.218475674117789e-13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[[0.97319834]
+ [0.85717933]
+ [0.80342286]]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[[0.02503088]
+ [0.12337471]
+ [0.1423812 ]]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20.33915870442998</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8074960443910881</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.218475674117789e-13</v>
       </c>
     </row>
   </sheetData>
